--- a/biology/Botanique/Magnolia_acuminata/Magnolia_acuminata.xlsx
+++ b/biology/Botanique/Magnolia_acuminata/Magnolia_acuminata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Magnolia acuminata, Arbre à cornichons, est une espèce d'arbres de la famille des Magnoliaceae.
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Avec une silhouette conique, il peut atteindre une hauteur de 25 mètres. Son port est dressé puis s'étale en vieillissant. Les feuilles pointues sont vert vif sur le dessus et ont une longueur d'environ 22 centimètres. Au début de l'été, des fleurs jaune-vert d'une dizaine de centimètres apparaissent, disséminées dans le feuillage. Les fruits sont rose vif puis rouges, semblables à de petits comcombres[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Avec une silhouette conique, il peut atteindre une hauteur de 25 mètres. Son port est dressé puis s'étale en vieillissant. Les feuilles pointues sont vert vif sur le dessus et ont une longueur d'environ 22 centimètres. Au début de l'été, des fleurs jaune-vert d'une dizaine de centimètres apparaissent, disséminées dans le feuillage. Les fruits sont rose vif puis rouges, semblables à de petits comcombres.
 </t>
         </is>
       </c>
@@ -542,11 +556,11 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cet arbre, assez rare, se trouve dans l'Est de l'Amérique du Nord, de l'Ontario à la Floride. Bien qu'il puisse donc bénéficier d'un climat doux, c'est l'un des magnolias les plus résistants au froid[2].
-Historique
-Envoyé par John Bartram à Peter Collinson en 1736.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cet arbre, assez rare, se trouve dans l'Est de l'Amérique du Nord, de l'Ontario à la Floride. Bien qu'il puisse donc bénéficier d'un climat doux, c'est l'un des magnolias les plus résistants au froid.
 </t>
         </is>
       </c>
@@ -572,12 +586,51 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Répartition et habitat</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Historique</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Envoyé par John Bartram à Peter Collinson en 1736.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Magnolia_acuminata</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Magnolia_acuminata</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Liste des variétés</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon World Checklist of Selected Plant Families (WCSP)  (30 décembre 2013)[3] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon World Checklist of Selected Plant Families (WCSP)  (30 décembre 2013) :
 Magnolia acuminata (L.) L., Syst. Nat. ed. 10 (1759)
 Magnolia acuminata var. acuminata
 Magnolia acuminata var. subcordata (Spach) Dandy (1964)</t>
